--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4227,28 +4227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>25706.36609482085</v>
+        <v>26011.17076930823</v>
       </c>
       <c r="AB2" t="n">
-        <v>35172.58417576854</v>
+        <v>35589.6313784354</v>
       </c>
       <c r="AC2" t="n">
-        <v>31815.76210706364</v>
+        <v>32193.00691003738</v>
       </c>
       <c r="AD2" t="n">
-        <v>25706366.09482085</v>
+        <v>26011170.76930823</v>
       </c>
       <c r="AE2" t="n">
-        <v>35172584.17576854</v>
+        <v>35589631.3784354</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.129220969990696e-07</v>
+        <v>5.789878069685171e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.553125</v>
       </c>
       <c r="AH2" t="n">
-        <v>31815762.10706364</v>
+        <v>32193006.91003738</v>
       </c>
     </row>
     <row r="3">
@@ -4333,28 +4333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>8431.153082690978</v>
+        <v>8589.695890668796</v>
       </c>
       <c r="AB3" t="n">
-        <v>11535.87560396111</v>
+        <v>11752.80086825142</v>
       </c>
       <c r="AC3" t="n">
-        <v>10434.90782702173</v>
+        <v>10631.13004854468</v>
       </c>
       <c r="AD3" t="n">
-        <v>8431153.082690978</v>
+        <v>8589695.890668796</v>
       </c>
       <c r="AE3" t="n">
-        <v>11535875.60396111</v>
+        <v>11752800.86825142</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.912695846793608e-07</v>
+        <v>1.094003534565687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.70416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>10434907.82702173</v>
+        <v>10631130.04854468</v>
       </c>
     </row>
     <row r="4">
@@ -4439,28 +4439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6418.742021355974</v>
+        <v>6564.918547010971</v>
       </c>
       <c r="AB4" t="n">
-        <v>8782.406008532247</v>
+        <v>8982.411179786595</v>
       </c>
       <c r="AC4" t="n">
-        <v>7944.225505261846</v>
+        <v>8125.142463680694</v>
       </c>
       <c r="AD4" t="n">
-        <v>6418742.021355974</v>
+        <v>6564918.54701097</v>
       </c>
       <c r="AE4" t="n">
-        <v>8782406.008532247</v>
+        <v>8982411.179786595</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.93972221643158e-07</v>
+        <v>1.284030301980996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.89791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>7944225.505261846</v>
+        <v>8125142.463680694</v>
       </c>
     </row>
     <row r="5">
@@ -4545,28 +4545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5626.283167119595</v>
+        <v>5748.153921910357</v>
       </c>
       <c r="AB5" t="n">
-        <v>7698.128843348733</v>
+        <v>7864.877786611704</v>
       </c>
       <c r="AC5" t="n">
-        <v>6963.430230930928</v>
+        <v>7114.264889082488</v>
       </c>
       <c r="AD5" t="n">
-        <v>5626283.167119595</v>
+        <v>5748153.921910357</v>
       </c>
       <c r="AE5" t="n">
-        <v>7698128.843348732</v>
+        <v>7864877.786611704</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.485329975301754e-07</v>
+        <v>1.384982022170378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.30208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>6963430.230930928</v>
+        <v>7114264.889082488</v>
       </c>
     </row>
     <row r="6">
@@ -4651,28 +4651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5176.014725307956</v>
+        <v>5297.800139244144</v>
       </c>
       <c r="AB6" t="n">
-        <v>7082.051696820318</v>
+        <v>7248.683872961093</v>
       </c>
       <c r="AC6" t="n">
-        <v>6406.150622597504</v>
+        <v>6556.879657717125</v>
       </c>
       <c r="AD6" t="n">
-        <v>5176014.725307955</v>
+        <v>5297800.139244144</v>
       </c>
       <c r="AE6" t="n">
-        <v>7082051.696820319</v>
+        <v>7248683.872961093</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.82524069138932e-07</v>
+        <v>1.447874403999592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.41770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>6406150.622597504</v>
+        <v>6556879.657717125</v>
       </c>
     </row>
     <row r="7">
@@ -4757,28 +4757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4863.933996209137</v>
+        <v>4985.804661491348</v>
       </c>
       <c r="AB7" t="n">
-        <v>6655.049075237226</v>
+        <v>6821.797896030647</v>
       </c>
       <c r="AC7" t="n">
-        <v>6019.900531916373</v>
+        <v>6170.735079286706</v>
       </c>
       <c r="AD7" t="n">
-        <v>4863933.996209137</v>
+        <v>4985804.661491348</v>
       </c>
       <c r="AE7" t="n">
-        <v>6655049.075237226</v>
+        <v>6821797.896030648</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.063032308223112e-07</v>
+        <v>1.491872078841489e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.846875</v>
       </c>
       <c r="AH7" t="n">
-        <v>6019900.531916373</v>
+        <v>6170735.079286706</v>
       </c>
     </row>
     <row r="8">
@@ -4863,28 +4863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4644.808153791818</v>
+        <v>4754.483307968901</v>
       </c>
       <c r="AB8" t="n">
-        <v>6355.231430491937</v>
+        <v>6505.293814963346</v>
       </c>
       <c r="AC8" t="n">
-        <v>5748.697062388879</v>
+        <v>5884.437703500212</v>
       </c>
       <c r="AD8" t="n">
-        <v>4644808.153791818</v>
+        <v>4754483.307968901</v>
       </c>
       <c r="AE8" t="n">
-        <v>6355231.430491937</v>
+        <v>6505293.814963345</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.233717088404423e-07</v>
+        <v>1.523453231948863e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.45729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5748697.062388879</v>
+        <v>5884437.703500211</v>
       </c>
     </row>
     <row r="9">
@@ -4969,28 +4969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4465.44456228798</v>
+        <v>4575.119716465063</v>
       </c>
       <c r="AB9" t="n">
-        <v>6109.818251633184</v>
+        <v>6259.880636104594</v>
       </c>
       <c r="AC9" t="n">
-        <v>5526.705772880856</v>
+        <v>5662.446413992188</v>
       </c>
       <c r="AD9" t="n">
-        <v>4465444.562287981</v>
+        <v>4575119.716465063</v>
       </c>
       <c r="AE9" t="n">
-        <v>6109818.251633184</v>
+        <v>6259880.636104594</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.360636540334116e-07</v>
+        <v>1.546936653490243e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>5526705.772880856</v>
+        <v>5662446.413992188</v>
       </c>
     </row>
     <row r="10">
@@ -5075,28 +5075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4300.824861313133</v>
+        <v>4422.610185740772</v>
       </c>
       <c r="AB10" t="n">
-        <v>5884.578314250738</v>
+        <v>6051.210367921965</v>
       </c>
       <c r="AC10" t="n">
-        <v>5322.962418995962</v>
+        <v>5473.691343334355</v>
       </c>
       <c r="AD10" t="n">
-        <v>4300824.861313133</v>
+        <v>4422610.185740772</v>
       </c>
       <c r="AE10" t="n">
-        <v>5884578.314250738</v>
+        <v>6051210.367921965</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.464214483862946e-07</v>
+        <v>1.566101284863094e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>5322962.418995962</v>
+        <v>5473691.343334355</v>
       </c>
     </row>
     <row r="11">
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4156.423216578394</v>
+        <v>4266.183622101499</v>
       </c>
       <c r="AB11" t="n">
-        <v>5687.001613373704</v>
+        <v>5837.180642497765</v>
       </c>
       <c r="AC11" t="n">
-        <v>5144.242161149999</v>
+        <v>5280.088314512042</v>
       </c>
       <c r="AD11" t="n">
-        <v>4156423.216578395</v>
+        <v>4266183.622101499</v>
       </c>
       <c r="AE11" t="n">
-        <v>5687001.613373704</v>
+        <v>5837180.642497765</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.547368607541019e-07</v>
+        <v>1.581486974838481e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.77708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>5144242.161149998</v>
+        <v>5280088.314512042</v>
       </c>
     </row>
     <row r="12">
@@ -5287,28 +5287,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4024.152676937922</v>
+        <v>4133.913082461026</v>
       </c>
       <c r="AB12" t="n">
-        <v>5506.02322567323</v>
+        <v>5656.20225479729</v>
       </c>
       <c r="AC12" t="n">
-        <v>4980.536096766902</v>
+        <v>5116.382250128947</v>
       </c>
       <c r="AD12" t="n">
-        <v>4024152.676937922</v>
+        <v>4133913.082461026</v>
       </c>
       <c r="AE12" t="n">
-        <v>5506023.225673229</v>
+        <v>5656202.25479729</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.62176966556877e-07</v>
+        <v>1.595253118500669e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.62604166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>4980536.096766902</v>
+        <v>5116382.250128947</v>
       </c>
     </row>
     <row r="13">
@@ -5393,28 +5393,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3928.934135249588</v>
+        <v>4038.694540772691</v>
       </c>
       <c r="AB13" t="n">
-        <v>5375.741016189657</v>
+        <v>5525.920045313718</v>
       </c>
       <c r="AC13" t="n">
-        <v>4862.687838504216</v>
+        <v>4998.533991866262</v>
       </c>
       <c r="AD13" t="n">
-        <v>3928934.135249588</v>
+        <v>4038694.540772691</v>
       </c>
       <c r="AE13" t="n">
-        <v>5375741.016189657</v>
+        <v>5525920.045313718</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.668452682370496e-07</v>
+        <v>1.603890698837729e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.53125</v>
       </c>
       <c r="AH13" t="n">
-        <v>4862687.838504217</v>
+        <v>4998533.991866262</v>
       </c>
     </row>
     <row r="14">
@@ -5499,28 +5499,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3900.376829492698</v>
+        <v>4009.96664281521</v>
       </c>
       <c r="AB14" t="n">
-        <v>5336.667650593665</v>
+        <v>5486.613267942877</v>
       </c>
       <c r="AC14" t="n">
-        <v>4827.343580080895</v>
+        <v>4962.978598160287</v>
       </c>
       <c r="AD14" t="n">
-        <v>3900376.829492698</v>
+        <v>4009966.642815209</v>
       </c>
       <c r="AE14" t="n">
-        <v>5336667.650593664</v>
+        <v>5486613.267942877</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.68449996939609e-07</v>
+        <v>1.606859867078593e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.49895833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>4827343.580080895</v>
+        <v>4962978.598160287</v>
       </c>
     </row>
     <row r="15">
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3910.453702000303</v>
+        <v>4020.043515322815</v>
       </c>
       <c r="AB15" t="n">
-        <v>5350.455272118809</v>
+        <v>5500.400889468022</v>
       </c>
       <c r="AC15" t="n">
-        <v>4839.815330358727</v>
+        <v>4975.450348438121</v>
       </c>
       <c r="AD15" t="n">
-        <v>3910453.702000303</v>
+        <v>4020043.515322815</v>
       </c>
       <c r="AE15" t="n">
-        <v>5350455.27211881</v>
+        <v>5500400.889468022</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.688876502221251e-07</v>
+        <v>1.607669640235192e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.490625</v>
       </c>
       <c r="AH15" t="n">
-        <v>4839815.330358727</v>
+        <v>4975450.348438121</v>
       </c>
     </row>
   </sheetData>
@@ -5902,28 +5902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>15353.24502831251</v>
+        <v>15576.67030748811</v>
       </c>
       <c r="AB2" t="n">
-        <v>21006.98718510494</v>
+        <v>21312.68750890069</v>
       </c>
       <c r="AC2" t="n">
-        <v>19002.10981164943</v>
+        <v>19278.63452559519</v>
       </c>
       <c r="AD2" t="n">
-        <v>15353245.02831251</v>
+        <v>15576670.30748811</v>
       </c>
       <c r="AE2" t="n">
-        <v>21006987.18510494</v>
+        <v>21312687.50890069</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.119990398454486e-07</v>
+        <v>7.853337547454762e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.16354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>19002109.81164943</v>
+        <v>19278634.52559519</v>
       </c>
     </row>
     <row r="3">
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6554.639096365944</v>
+        <v>6695.803641958551</v>
       </c>
       <c r="AB3" t="n">
-        <v>8968.346381916715</v>
+        <v>9161.493940936754</v>
       </c>
       <c r="AC3" t="n">
-        <v>8112.419990379448</v>
+        <v>8287.133817450906</v>
       </c>
       <c r="AD3" t="n">
-        <v>6554639.096365944</v>
+        <v>6695803.641958551</v>
       </c>
       <c r="AE3" t="n">
-        <v>8968346.381916715</v>
+        <v>9161493.940936754</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.679515569069434e-07</v>
+        <v>1.273218754030578e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.534375</v>
       </c>
       <c r="AH3" t="n">
-        <v>8112419.990379448</v>
+        <v>8287133.817450906</v>
       </c>
     </row>
     <row r="4">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5194.120283753316</v>
+        <v>5323.435776358634</v>
       </c>
       <c r="AB4" t="n">
-        <v>7106.82452064613</v>
+        <v>7283.759682625631</v>
       </c>
       <c r="AC4" t="n">
-        <v>6428.559162886256</v>
+        <v>6588.607881336486</v>
       </c>
       <c r="AD4" t="n">
-        <v>5194120.283753316</v>
+        <v>5323435.776358634</v>
       </c>
       <c r="AE4" t="n">
-        <v>7106824.52064613</v>
+        <v>7283759.682625631</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.609154428207882e-07</v>
+        <v>1.450422267921865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.66041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>6428559.162886255</v>
+        <v>6588607.881336486</v>
       </c>
     </row>
     <row r="5">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4612.787454985911</v>
+        <v>4730.253984112491</v>
       </c>
       <c r="AB5" t="n">
-        <v>6311.41929773216</v>
+        <v>6472.142185140677</v>
       </c>
       <c r="AC5" t="n">
-        <v>5709.066298088983</v>
+        <v>5854.450018699214</v>
       </c>
       <c r="AD5" t="n">
-        <v>4612787.454985911</v>
+        <v>4730253.984112491</v>
       </c>
       <c r="AE5" t="n">
-        <v>6311419.29773216</v>
+        <v>6472142.185140677</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.093592859674509e-07</v>
+        <v>1.542763709413915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>5709066.298088983</v>
+        <v>5854450.018699214</v>
       </c>
     </row>
     <row r="6">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4257.648147710684</v>
+        <v>4375.199928183286</v>
       </c>
       <c r="AB6" t="n">
-        <v>5825.502029877697</v>
+        <v>5986.341561938863</v>
       </c>
       <c r="AC6" t="n">
-        <v>5269.5242922894</v>
+        <v>5415.013525150343</v>
       </c>
       <c r="AD6" t="n">
-        <v>4257648.147710685</v>
+        <v>4375199.928183286</v>
       </c>
       <c r="AE6" t="n">
-        <v>5825502.029877697</v>
+        <v>5986341.561938863</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.395423658096083e-07</v>
+        <v>1.600297317820177e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.72604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>5269524.2922894</v>
+        <v>5415013.525150343</v>
       </c>
     </row>
     <row r="7">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4005.31327374842</v>
+        <v>4111.101431596855</v>
       </c>
       <c r="AB7" t="n">
-        <v>5480.24632309354</v>
+        <v>5624.990347705919</v>
       </c>
       <c r="AC7" t="n">
-        <v>4957.219305591309</v>
+        <v>5088.14916364419</v>
       </c>
       <c r="AD7" t="n">
-        <v>4005313.27374842</v>
+        <v>4111101.431596855</v>
       </c>
       <c r="AE7" t="n">
-        <v>5480246.32309354</v>
+        <v>5624990.347705918</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.60217775501486e-07</v>
+        <v>1.639707839578466e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.27395833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>4957219.305591309</v>
+        <v>5088149.16364419</v>
       </c>
     </row>
     <row r="8">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3787.745996040589</v>
+        <v>3905.212435658617</v>
       </c>
       <c r="AB8" t="n">
-        <v>5182.561175342797</v>
+        <v>5343.283940281765</v>
       </c>
       <c r="AC8" t="n">
-        <v>4687.944810538177</v>
+        <v>4833.328420367183</v>
       </c>
       <c r="AD8" t="n">
-        <v>3787745.99604059</v>
+        <v>3905212.435658617</v>
       </c>
       <c r="AE8" t="n">
-        <v>5182561.175342797</v>
+        <v>5343283.940281766</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.754602308217756e-07</v>
+        <v>1.668762311823629e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.95625</v>
       </c>
       <c r="AH8" t="n">
-        <v>4687944.810538177</v>
+        <v>4833328.420367183</v>
       </c>
     </row>
     <row r="9">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3612.814935885967</v>
+        <v>3718.688345080423</v>
       </c>
       <c r="AB9" t="n">
-        <v>4943.212781425525</v>
+        <v>5088.073450690551</v>
       </c>
       <c r="AC9" t="n">
-        <v>4471.439491408798</v>
+        <v>4602.474861712391</v>
       </c>
       <c r="AD9" t="n">
-        <v>3612814.935885967</v>
+        <v>3718688.345080423</v>
       </c>
       <c r="AE9" t="n">
-        <v>4943212.781425525</v>
+        <v>5088073.450690551</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.866279703633739e-07</v>
+        <v>1.690049746933946e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.73020833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4471439.491408798</v>
+        <v>4602474.861712391</v>
       </c>
     </row>
     <row r="10">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3531.245617008558</v>
+        <v>3637.119026203014</v>
       </c>
       <c r="AB10" t="n">
-        <v>4831.606040753074</v>
+        <v>4976.4667100181</v>
       </c>
       <c r="AC10" t="n">
-        <v>4370.484341425086</v>
+        <v>4501.51971172868</v>
       </c>
       <c r="AD10" t="n">
-        <v>3531245.617008558</v>
+        <v>3637119.026203013</v>
       </c>
       <c r="AE10" t="n">
-        <v>4831606.040753074</v>
+        <v>4976466.7100181</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.91457263138119e-07</v>
+        <v>1.699255124278948e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.634375</v>
       </c>
       <c r="AH10" t="n">
-        <v>4370484.341425086</v>
+        <v>4501519.71172868</v>
       </c>
     </row>
     <row r="11">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3538.263625787872</v>
+        <v>3644.137034982327</v>
       </c>
       <c r="AB11" t="n">
-        <v>4841.208389977627</v>
+        <v>4986.069059242654</v>
       </c>
       <c r="AC11" t="n">
-        <v>4379.17025591663</v>
+        <v>4510.205626220223</v>
       </c>
       <c r="AD11" t="n">
-        <v>3538263.625787872</v>
+        <v>3644137.034982327</v>
       </c>
       <c r="AE11" t="n">
-        <v>4841208.389977627</v>
+        <v>4986069.059242654</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.922118401341728e-07</v>
+        <v>1.700693464489104e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.61875</v>
       </c>
       <c r="AH11" t="n">
-        <v>4379170.25591663</v>
+        <v>4510205.626220223</v>
       </c>
     </row>
     <row r="12">
@@ -6962,28 +6962,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3556.36421328122</v>
+        <v>3662.237622475675</v>
       </c>
       <c r="AB12" t="n">
-        <v>4865.974412327589</v>
+        <v>5010.835081592616</v>
       </c>
       <c r="AC12" t="n">
-        <v>4401.57264385284</v>
+        <v>4532.608014156434</v>
       </c>
       <c r="AD12" t="n">
-        <v>3556364.21328122</v>
+        <v>3662237.622475675</v>
       </c>
       <c r="AE12" t="n">
-        <v>4865974.412327589</v>
+        <v>5010835.081592616</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.922118401341728e-07</v>
+        <v>1.700693464489104e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.61875</v>
       </c>
       <c r="AH12" t="n">
-        <v>4401572.64385284</v>
+        <v>4532608.014156435</v>
       </c>
     </row>
   </sheetData>
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4784.759904128594</v>
+        <v>4910.235962676865</v>
       </c>
       <c r="AB2" t="n">
-        <v>6546.719589538194</v>
+        <v>6718.401468456966</v>
       </c>
       <c r="AC2" t="n">
-        <v>5921.909860291074</v>
+        <v>6077.206661642863</v>
       </c>
       <c r="AD2" t="n">
-        <v>4784759.904128594</v>
+        <v>4910235.962676865</v>
       </c>
       <c r="AE2" t="n">
-        <v>6546719.589538193</v>
+        <v>6718401.468456966</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.23781483025982e-07</v>
+        <v>1.541465143107464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>5921909.860291073</v>
+        <v>6077206.661642862</v>
       </c>
     </row>
     <row r="3">
@@ -7365,28 +7365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3025.93618100881</v>
+        <v>3130.400013720127</v>
       </c>
       <c r="AB3" t="n">
-        <v>4140.219377739201</v>
+        <v>4283.151402273872</v>
       </c>
       <c r="AC3" t="n">
-        <v>3745.082651162008</v>
+        <v>3874.373443881441</v>
       </c>
       <c r="AD3" t="n">
-        <v>3025936.18100881</v>
+        <v>3130400.013720127</v>
       </c>
       <c r="AE3" t="n">
-        <v>4140219.377739201</v>
+        <v>4283151.402273872</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.063266499873976e-07</v>
+        <v>1.930238576129449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.35625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3745082.651162007</v>
+        <v>3874373.443881441</v>
       </c>
     </row>
     <row r="4">
@@ -7471,28 +7471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2669.593096869751</v>
+        <v>2763.678827944448</v>
       </c>
       <c r="AB4" t="n">
-        <v>3652.655049272755</v>
+        <v>3781.387297298672</v>
       </c>
       <c r="AC4" t="n">
-        <v>3304.050777903585</v>
+        <v>3420.497000854748</v>
       </c>
       <c r="AD4" t="n">
-        <v>2669593.096869751</v>
+        <v>2763678.827944448</v>
       </c>
       <c r="AE4" t="n">
-        <v>3652655.049272755</v>
+        <v>3781387.297298672</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.496053473205008e-07</v>
+        <v>2.022410875286875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.47395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3304050.777903585</v>
+        <v>3420497.000854748</v>
       </c>
     </row>
     <row r="5">
@@ -7577,28 +7577,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2684.61589016526</v>
+        <v>2778.701621239957</v>
       </c>
       <c r="AB5" t="n">
-        <v>3673.209897818535</v>
+        <v>3801.942145844453</v>
       </c>
       <c r="AC5" t="n">
-        <v>3322.643900553067</v>
+        <v>3439.090123504229</v>
       </c>
       <c r="AD5" t="n">
-        <v>2684615.89016526</v>
+        <v>2778701.621239957</v>
       </c>
       <c r="AE5" t="n">
-        <v>3673209.897818536</v>
+        <v>3801942.145844453</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.504473453230904e-07</v>
+        <v>2.024204110679043e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.45520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3322643.900553067</v>
+        <v>3439090.123504229</v>
       </c>
     </row>
   </sheetData>
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7336.356783996174</v>
+        <v>7489.876677296957</v>
       </c>
       <c r="AB2" t="n">
-        <v>10037.92700908287</v>
+        <v>10247.9796999167</v>
       </c>
       <c r="AC2" t="n">
-        <v>9079.92134365466</v>
+        <v>9269.926900486107</v>
       </c>
       <c r="AD2" t="n">
-        <v>7336356.783996174</v>
+        <v>7489876.677296957</v>
       </c>
       <c r="AE2" t="n">
-        <v>10037927.00908287</v>
+        <v>10247979.6999167</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.978515782478458e-07</v>
+        <v>1.213845400063056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.06875</v>
       </c>
       <c r="AH2" t="n">
-        <v>9079921.343654661</v>
+        <v>9269926.900486108</v>
       </c>
     </row>
     <row r="3">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4176.501378745774</v>
+        <v>4297.105794399405</v>
       </c>
       <c r="AB3" t="n">
-        <v>5714.473440637112</v>
+        <v>5879.489722825725</v>
       </c>
       <c r="AC3" t="n">
-        <v>5169.092115776337</v>
+        <v>5318.359475594668</v>
       </c>
       <c r="AD3" t="n">
-        <v>4176501.378745773</v>
+        <v>4297105.794399405</v>
       </c>
       <c r="AE3" t="n">
-        <v>5714473.440637112</v>
+        <v>5879489.722825725</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.098625394373271e-07</v>
+        <v>1.644300950179731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.721875</v>
       </c>
       <c r="AH3" t="n">
-        <v>5169092.115776337</v>
+        <v>5318359.475594668</v>
       </c>
     </row>
     <row r="4">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3442.29989511036</v>
+        <v>3551.932514717791</v>
       </c>
       <c r="AB4" t="n">
-        <v>4709.906580043643</v>
+        <v>4859.910766840363</v>
       </c>
       <c r="AC4" t="n">
-        <v>4260.399706439503</v>
+        <v>4396.087704180537</v>
       </c>
       <c r="AD4" t="n">
-        <v>3442299.895110359</v>
+        <v>3551932.514717791</v>
       </c>
       <c r="AE4" t="n">
-        <v>4709906.580043643</v>
+        <v>4859910.766840363</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.852585347539511e-07</v>
+        <v>1.797380887455266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.95729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4260399.706439503</v>
+        <v>4396087.704180537</v>
       </c>
     </row>
     <row r="5">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3066.982821940494</v>
+        <v>3165.643735010276</v>
       </c>
       <c r="AB5" t="n">
-        <v>4196.381202711927</v>
+        <v>4331.373416586305</v>
       </c>
       <c r="AC5" t="n">
-        <v>3795.884470382952</v>
+        <v>3917.993216827915</v>
       </c>
       <c r="AD5" t="n">
-        <v>3066982.821940494</v>
+        <v>3165643.735010276</v>
       </c>
       <c r="AE5" t="n">
-        <v>4196381.202711928</v>
+        <v>4331373.416586305</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.232787375204539e-07</v>
+        <v>1.874575043859169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3795884.470382952</v>
+        <v>3917993.216827915</v>
       </c>
     </row>
     <row r="6">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2960.748234423204</v>
+        <v>3070.295513176065</v>
       </c>
       <c r="AB6" t="n">
-        <v>4051.026353331537</v>
+        <v>4200.91377300606</v>
       </c>
       <c r="AC6" t="n">
-        <v>3664.402083820618</v>
+        <v>3799.984458529714</v>
       </c>
       <c r="AD6" t="n">
-        <v>2960748.234423204</v>
+        <v>3070295.513176065</v>
       </c>
       <c r="AE6" t="n">
-        <v>4051026.353331537</v>
+        <v>4200913.77300606</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.326226856579841e-07</v>
+        <v>1.893546489077077e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.99270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3664402.083820618</v>
+        <v>3799984.458529714</v>
       </c>
     </row>
     <row r="7">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2978.315918254492</v>
+        <v>3087.863197007352</v>
       </c>
       <c r="AB7" t="n">
-        <v>4075.063233381018</v>
+        <v>4224.95065305554</v>
       </c>
       <c r="AC7" t="n">
-        <v>3686.144917774148</v>
+        <v>3821.727292483244</v>
       </c>
       <c r="AD7" t="n">
-        <v>2978315.918254492</v>
+        <v>3087863.197007352</v>
       </c>
       <c r="AE7" t="n">
-        <v>4075063.233381018</v>
+        <v>4224950.65305554</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.326226856579841e-07</v>
+        <v>1.893546489077077e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.99270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3686144.917774148</v>
+        <v>3821727.292483244</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3315.483435893341</v>
+        <v>3435.870613748119</v>
       </c>
       <c r="AB2" t="n">
-        <v>4536.390705795586</v>
+        <v>4701.109753643951</v>
       </c>
       <c r="AC2" t="n">
-        <v>4103.443943698628</v>
+        <v>4252.442436804974</v>
       </c>
       <c r="AD2" t="n">
-        <v>3315483.435893341</v>
+        <v>3435870.61374812</v>
       </c>
       <c r="AE2" t="n">
-        <v>4536390.705795586</v>
+        <v>4701109.753643951</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.340845307511225e-07</v>
+        <v>1.857343333221583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4103443.943698627</v>
+        <v>4252442.436804974</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2447.040361829711</v>
+        <v>2537.458846011204</v>
       </c>
       <c r="AB3" t="n">
-        <v>3348.148578857229</v>
+        <v>3471.863137896347</v>
       </c>
       <c r="AC3" t="n">
-        <v>3028.605977647012</v>
+        <v>3140.513392805907</v>
       </c>
       <c r="AD3" t="n">
-        <v>2447040.361829712</v>
+        <v>2537458.846011204</v>
       </c>
       <c r="AE3" t="n">
-        <v>3348148.578857229</v>
+        <v>3471863.137896347</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.545886703375186e-07</v>
+        <v>2.125682514724974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3028605.977647012</v>
+        <v>3140513.392805907</v>
       </c>
     </row>
     <row r="4">
@@ -8913,28 +8913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2472.592456168488</v>
+        <v>2563.01094034998</v>
       </c>
       <c r="AB4" t="n">
-        <v>3383.110081610387</v>
+        <v>3506.824640649506</v>
       </c>
       <c r="AC4" t="n">
-        <v>3060.230803646185</v>
+        <v>3172.13821880508</v>
       </c>
       <c r="AD4" t="n">
-        <v>2472592.456168488</v>
+        <v>2563010.94034998</v>
       </c>
       <c r="AE4" t="n">
-        <v>3383110.081610387</v>
+        <v>3506824.640649506</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.545886703375186e-07</v>
+        <v>2.125682514724974e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.08541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3060230.803646185</v>
+        <v>3172138.21880508</v>
       </c>
     </row>
   </sheetData>
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>17362.48730774264</v>
+        <v>17611.6532115669</v>
       </c>
       <c r="AB2" t="n">
-        <v>23756.12111333477</v>
+        <v>24097.04089537102</v>
       </c>
       <c r="AC2" t="n">
-        <v>21488.87025620259</v>
+        <v>21797.25313272521</v>
       </c>
       <c r="AD2" t="n">
-        <v>17362487.30774264</v>
+        <v>17611653.2115669</v>
       </c>
       <c r="AE2" t="n">
-        <v>23756121.11333477</v>
+        <v>24097040.89537102</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.860136812171137e-07</v>
+        <v>7.298606440366729e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>21488870.25620259</v>
+        <v>21797253.13272521</v>
       </c>
     </row>
     <row r="3">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7003.941211132786</v>
+        <v>7146.382723717867</v>
       </c>
       <c r="AB3" t="n">
-        <v>9583.10135715109</v>
+        <v>9777.996118746041</v>
       </c>
       <c r="AC3" t="n">
-        <v>8668.503613591458</v>
+        <v>8844.797892676292</v>
       </c>
       <c r="AD3" t="n">
-        <v>7003941.211132785</v>
+        <v>7146382.723717866</v>
       </c>
       <c r="AE3" t="n">
-        <v>9583101.357151091</v>
+        <v>9777996.11874604</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.475936612437437e-07</v>
+        <v>1.22444656671011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.05416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>8668503.613591459</v>
+        <v>8844797.892676292</v>
       </c>
     </row>
     <row r="4">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5491.685321596861</v>
+        <v>5622.249514345801</v>
       </c>
       <c r="AB4" t="n">
-        <v>7513.966133066659</v>
+        <v>7692.609821671425</v>
       </c>
       <c r="AC4" t="n">
-        <v>6796.843751244195</v>
+        <v>6958.437936936508</v>
       </c>
       <c r="AD4" t="n">
-        <v>5491685.321596861</v>
+        <v>5622249.514345801</v>
       </c>
       <c r="AE4" t="n">
-        <v>7513966.133066659</v>
+        <v>7692609.821671425</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.431623331917235e-07</v>
+        <v>1.405144339487884e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.96458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>6796843.751244195</v>
+        <v>6958437.936936508</v>
       </c>
     </row>
     <row r="5">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4859.115892069593</v>
+        <v>4977.888195345512</v>
       </c>
       <c r="AB5" t="n">
-        <v>6648.456732593747</v>
+        <v>6810.966237800078</v>
       </c>
       <c r="AC5" t="n">
-        <v>6013.937353202378</v>
+        <v>6160.937179315333</v>
       </c>
       <c r="AD5" t="n">
-        <v>4859115.892069593</v>
+        <v>4977888.195345512</v>
       </c>
       <c r="AE5" t="n">
-        <v>6648456.732593747</v>
+        <v>6810966.237800078</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.935639645633496e-07</v>
+        <v>1.500441912924675e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.63333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>6013937.353202378</v>
+        <v>6160937.179315333</v>
       </c>
     </row>
     <row r="6">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4484.473226750928</v>
+        <v>4603.160189172276</v>
       </c>
       <c r="AB6" t="n">
-        <v>6135.854109836819</v>
+        <v>6298.246847920951</v>
       </c>
       <c r="AC6" t="n">
-        <v>5550.256805319092</v>
+        <v>5697.151008400107</v>
       </c>
       <c r="AD6" t="n">
-        <v>4484473.226750928</v>
+        <v>4603160.189172275</v>
       </c>
       <c r="AE6" t="n">
-        <v>6135854.109836819</v>
+        <v>6298246.847920951</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.243732703869551e-07</v>
+        <v>1.558695029031438e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.896875</v>
       </c>
       <c r="AH6" t="n">
-        <v>5550256.805319091</v>
+        <v>5697151.008400108</v>
       </c>
     </row>
     <row r="7">
@@ -9740,28 +9740,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4228.084912319013</v>
+        <v>4334.89473392132</v>
       </c>
       <c r="AB7" t="n">
-        <v>5785.052306976914</v>
+        <v>5931.194217009962</v>
       </c>
       <c r="AC7" t="n">
-        <v>5232.935034170726</v>
+        <v>5365.129365421673</v>
       </c>
       <c r="AD7" t="n">
-        <v>4228084.912319013</v>
+        <v>4334894.73392132</v>
       </c>
       <c r="AE7" t="n">
-        <v>5785052.306976914</v>
+        <v>5931194.217009962</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.459098725160772e-07</v>
+        <v>1.599415653882767e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.41666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5232935.034170726</v>
+        <v>5365129.365421673</v>
       </c>
     </row>
     <row r="8">
@@ -9846,28 +9846,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4014.758627243851</v>
+        <v>4121.568448846157</v>
       </c>
       <c r="AB8" t="n">
-        <v>5493.169872445577</v>
+        <v>5639.311782478626</v>
       </c>
       <c r="AC8" t="n">
-        <v>4968.909449531502</v>
+        <v>5101.10378078245</v>
       </c>
       <c r="AD8" t="n">
-        <v>4014758.627243851</v>
+        <v>4121568.448846157</v>
       </c>
       <c r="AE8" t="n">
-        <v>5493169.872445578</v>
+        <v>5639311.782478626</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.616136449018954e-07</v>
+        <v>1.629107776170195e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.08020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4968909.449531502</v>
+        <v>5101103.78078245</v>
       </c>
     </row>
     <row r="9">
@@ -9952,28 +9952,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3827.088212220684</v>
+        <v>3945.68983378746</v>
       </c>
       <c r="AB9" t="n">
-        <v>5236.390931176488</v>
+        <v>5398.666902138424</v>
       </c>
       <c r="AC9" t="n">
-        <v>4736.637130025637</v>
+        <v>4883.425710074715</v>
       </c>
       <c r="AD9" t="n">
-        <v>3827088.212220684</v>
+        <v>3945689.83378746</v>
       </c>
       <c r="AE9" t="n">
-        <v>5236390.931176488</v>
+        <v>5398666.902138424</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.737279835995268e-07</v>
+        <v>1.652013127649067e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.83125</v>
       </c>
       <c r="AH9" t="n">
-        <v>4736637.130025637</v>
+        <v>4883425.710074714</v>
       </c>
     </row>
     <row r="10">
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3671.086426983275</v>
+        <v>3777.981499931601</v>
       </c>
       <c r="AB10" t="n">
-        <v>5022.942406301617</v>
+        <v>5169.200960987316</v>
       </c>
       <c r="AC10" t="n">
-        <v>4543.559832787945</v>
+        <v>4675.859676289605</v>
       </c>
       <c r="AD10" t="n">
-        <v>3671086.426983275</v>
+        <v>3777981.499931601</v>
       </c>
       <c r="AE10" t="n">
-        <v>5022942.406301617</v>
+        <v>5169200.960987316</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.825520080829865e-07</v>
+        <v>1.668697272553431e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.65208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4543559.832787945</v>
+        <v>4675859.676289605</v>
       </c>
     </row>
     <row r="11">
@@ -10164,28 +10164,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3618.804212841637</v>
+        <v>3725.699285789964</v>
       </c>
       <c r="AB11" t="n">
-        <v>4951.407574384523</v>
+        <v>5097.666129070222</v>
       </c>
       <c r="AC11" t="n">
-        <v>4478.852184829255</v>
+        <v>4611.152028330915</v>
       </c>
       <c r="AD11" t="n">
-        <v>3618804.212841637</v>
+        <v>3725699.285789964</v>
       </c>
       <c r="AE11" t="n">
-        <v>4951407.574384524</v>
+        <v>5097666.129070222</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.858423222971581e-07</v>
+        <v>1.67491847912794e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.58645833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>4478852.184829255</v>
+        <v>4611152.028330915</v>
       </c>
     </row>
     <row r="12">
@@ -10270,28 +10270,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3630.96372734142</v>
+        <v>3737.858800289746</v>
       </c>
       <c r="AB12" t="n">
-        <v>4968.044758563046</v>
+        <v>5114.303313248745</v>
       </c>
       <c r="AC12" t="n">
-        <v>4493.901539500213</v>
+        <v>4626.201383001873</v>
       </c>
       <c r="AD12" t="n">
-        <v>3630963.72734142</v>
+        <v>3737858.800289746</v>
       </c>
       <c r="AE12" t="n">
-        <v>4968044.758563046</v>
+        <v>5114303.313248745</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.864405612451891e-07</v>
+        <v>1.676049607596033e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.57395833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>4493901.539500213</v>
+        <v>4626201.383001873</v>
       </c>
     </row>
   </sheetData>
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2600.645297147452</v>
+        <v>2708.355435125667</v>
       </c>
       <c r="AB2" t="n">
-        <v>3558.317627930453</v>
+        <v>3705.691390548175</v>
       </c>
       <c r="AC2" t="n">
-        <v>3218.716787650793</v>
+        <v>3352.025405204648</v>
       </c>
       <c r="AD2" t="n">
-        <v>2600645.297147452</v>
+        <v>2708355.435125667</v>
       </c>
       <c r="AE2" t="n">
-        <v>3558317.627930453</v>
+        <v>3705691.390548175</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.042401328289934e-07</v>
+        <v>2.073030860897528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.61770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3218716.787650793</v>
+        <v>3352025.405204649</v>
       </c>
     </row>
     <row r="3">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2334.158266533732</v>
+        <v>2432.15415638172</v>
       </c>
       <c r="AB3" t="n">
-        <v>3193.698316066687</v>
+        <v>3327.780615830251</v>
       </c>
       <c r="AC3" t="n">
-        <v>2888.896231164901</v>
+        <v>3010.181904424714</v>
       </c>
       <c r="AD3" t="n">
-        <v>2334158.266533732</v>
+        <v>2432154.15638172</v>
       </c>
       <c r="AE3" t="n">
-        <v>3193698.316066687</v>
+        <v>3327780.615830251</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.498817072295067e-07</v>
+        <v>2.177667216702926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.628125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2888896.231164901</v>
+        <v>3010181.904424714</v>
       </c>
     </row>
   </sheetData>
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10661.59697584884</v>
+        <v>10855.23157632744</v>
       </c>
       <c r="AB2" t="n">
-        <v>14587.6673388197</v>
+        <v>14852.6067417502</v>
       </c>
       <c r="AC2" t="n">
-        <v>13195.44084192189</v>
+        <v>13435.09480008149</v>
       </c>
       <c r="AD2" t="n">
-        <v>10661596.97584884</v>
+        <v>10855231.57632744</v>
       </c>
       <c r="AE2" t="n">
-        <v>14587667.3388197</v>
+        <v>14852606.7417502</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.974113125581626e-07</v>
+        <v>9.749192984223981e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.56354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>13195440.84192189</v>
+        <v>13435094.80008149</v>
       </c>
     </row>
     <row r="3">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5323.921322004843</v>
+        <v>5449.184267992048</v>
       </c>
       <c r="AB3" t="n">
-        <v>7284.424027599536</v>
+        <v>7455.814316510398</v>
       </c>
       <c r="AC3" t="n">
-        <v>6589.208822158494</v>
+        <v>6744.24186244348</v>
       </c>
       <c r="AD3" t="n">
-        <v>5323921.322004844</v>
+        <v>5449184.267992049</v>
       </c>
       <c r="AE3" t="n">
-        <v>7284424.027599536</v>
+        <v>7455814.316510398</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.339110332211713e-07</v>
+        <v>1.438455482511322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.07083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>6589208.822158494</v>
+        <v>6744241.862443481</v>
       </c>
     </row>
     <row r="4">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4327.911410133383</v>
+        <v>4453.088925757466</v>
       </c>
       <c r="AB4" t="n">
-        <v>5921.639325320803</v>
+        <v>6092.91272463992</v>
       </c>
       <c r="AC4" t="n">
-        <v>5356.486379184955</v>
+        <v>5511.413685656774</v>
       </c>
       <c r="AD4" t="n">
-        <v>4327911.410133382</v>
+        <v>4453088.925757466</v>
       </c>
       <c r="AE4" t="n">
-        <v>5921639.325320804</v>
+        <v>6092912.724639921</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.175644518383303e-07</v>
+        <v>1.602415026916214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.81041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5356486.379184955</v>
+        <v>5511413.685656774</v>
       </c>
     </row>
     <row r="5">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3855.644782906189</v>
+        <v>3969.512348718187</v>
       </c>
       <c r="AB5" t="n">
-        <v>5275.463291015382</v>
+        <v>5431.261918041831</v>
       </c>
       <c r="AC5" t="n">
-        <v>4771.980478679907</v>
+        <v>4912.909903407693</v>
       </c>
       <c r="AD5" t="n">
-        <v>3855644.782906189</v>
+        <v>3969512.348718187</v>
       </c>
       <c r="AE5" t="n">
-        <v>5275463.291015382</v>
+        <v>5431261.918041832</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.620344847835114e-07</v>
+        <v>1.689575676915841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.790625</v>
       </c>
       <c r="AH5" t="n">
-        <v>4771980.478679907</v>
+        <v>4912909.903407693</v>
       </c>
     </row>
     <row r="6">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3550.221428639544</v>
+        <v>3652.693793293436</v>
       </c>
       <c r="AB6" t="n">
-        <v>4857.569583380316</v>
+        <v>4997.776793461448</v>
       </c>
       <c r="AC6" t="n">
-        <v>4393.969959984043</v>
+        <v>4520.795990717083</v>
       </c>
       <c r="AD6" t="n">
-        <v>3550221.428639544</v>
+        <v>3652693.793293436</v>
       </c>
       <c r="AE6" t="n">
-        <v>4857569.583380315</v>
+        <v>4997776.793461448</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.889341900265756e-07</v>
+        <v>1.742298727440091e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.21875</v>
       </c>
       <c r="AH6" t="n">
-        <v>4393969.959984044</v>
+        <v>4520795.990717083</v>
       </c>
     </row>
     <row r="7">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3310.81983250178</v>
+        <v>3424.602057459207</v>
       </c>
       <c r="AB7" t="n">
-        <v>4530.009757891591</v>
+        <v>4685.691617795843</v>
       </c>
       <c r="AC7" t="n">
-        <v>4097.671984506874</v>
+        <v>4238.49578620272</v>
       </c>
       <c r="AD7" t="n">
-        <v>3310819.83250178</v>
+        <v>3424602.057459207</v>
       </c>
       <c r="AE7" t="n">
-        <v>4530009.757891591</v>
+        <v>4685691.617795843</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.06660007354375e-07</v>
+        <v>1.777041084432948e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.86354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4097671.984506873</v>
+        <v>4238495.786202719</v>
       </c>
     </row>
     <row r="8">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3249.07360226084</v>
+        <v>3351.631218260753</v>
       </c>
       <c r="AB8" t="n">
-        <v>4445.525841624509</v>
+        <v>4585.84969635829</v>
       </c>
       <c r="AC8" t="n">
-        <v>4021.251094634403</v>
+        <v>4148.182637618154</v>
       </c>
       <c r="AD8" t="n">
-        <v>3249073.60226084</v>
+        <v>3351631.218260753</v>
       </c>
       <c r="AE8" t="n">
-        <v>4445525.841624509</v>
+        <v>4585849.696358291</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.116356753762135e-07</v>
+        <v>1.786793324992348e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.76770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4021251.094634403</v>
+        <v>4148182.637618154</v>
       </c>
     </row>
     <row r="9">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3264.115379616649</v>
+        <v>3366.672995616562</v>
       </c>
       <c r="AB9" t="n">
-        <v>4466.106664999109</v>
+        <v>4606.43051973289</v>
       </c>
       <c r="AC9" t="n">
-        <v>4039.867713111497</v>
+        <v>4166.799256095249</v>
       </c>
       <c r="AD9" t="n">
-        <v>3264115.379616648</v>
+        <v>3366672.995616562</v>
       </c>
       <c r="AE9" t="n">
-        <v>4466106.664999109</v>
+        <v>4606430.519732891</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.119466546275784e-07</v>
+        <v>1.78740284002731e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.76041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4039867.713111497</v>
+        <v>4166799.256095249</v>
       </c>
     </row>
   </sheetData>
@@ -12009,28 +12009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13592.95931781481</v>
+        <v>13802.49985725687</v>
       </c>
       <c r="AB2" t="n">
-        <v>18598.48661767717</v>
+        <v>18885.18922801799</v>
       </c>
       <c r="AC2" t="n">
-        <v>16823.47315802527</v>
+        <v>17082.81327362479</v>
       </c>
       <c r="AD2" t="n">
-        <v>13592959.31781481</v>
+        <v>13802499.85725687</v>
       </c>
       <c r="AE2" t="n">
-        <v>18598486.61767717</v>
+        <v>18885189.22801799</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.39069400349564e-07</v>
+        <v>8.442000889293636e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>16823473.15802527</v>
+        <v>17082813.27362479</v>
       </c>
     </row>
     <row r="3">
@@ -12115,28 +12115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6136.500904881938</v>
+        <v>6264.60564431654</v>
       </c>
       <c r="AB3" t="n">
-        <v>8396.231261373177</v>
+        <v>8571.509817449845</v>
       </c>
       <c r="AC3" t="n">
-        <v>7594.906733971992</v>
+        <v>7753.456950661694</v>
       </c>
       <c r="AD3" t="n">
-        <v>6136500.904881938</v>
+        <v>6264605.64431654</v>
       </c>
       <c r="AE3" t="n">
-        <v>8396231.261373177</v>
+        <v>8571509.817449845</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.889215226858877e-07</v>
+        <v>1.32459153439923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.03645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>7594906.733971993</v>
+        <v>7753456.950661695</v>
       </c>
     </row>
     <row r="4">
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4910.082738895292</v>
+        <v>5026.456260209316</v>
       </c>
       <c r="AB4" t="n">
-        <v>6718.191820919261</v>
+        <v>6877.419206818539</v>
       </c>
       <c r="AC4" t="n">
-        <v>6077.017022571915</v>
+        <v>6221.047970237999</v>
       </c>
       <c r="AD4" t="n">
-        <v>4910082.738895292</v>
+        <v>5026456.260209316</v>
       </c>
       <c r="AE4" t="n">
-        <v>6718191.820919261</v>
+        <v>6877419.20681854</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.788073471849309e-07</v>
+        <v>1.497415286123146e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.37604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>6077017.022571915</v>
+        <v>6221047.970237999</v>
       </c>
     </row>
     <row r="5">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4367.809976271939</v>
+        <v>4484.098156731393</v>
       </c>
       <c r="AB5" t="n">
-        <v>5976.230303712089</v>
+        <v>6135.340922489168</v>
       </c>
       <c r="AC5" t="n">
-        <v>5405.867271217493</v>
+        <v>5549.792595851637</v>
       </c>
       <c r="AD5" t="n">
-        <v>4367809.976271939</v>
+        <v>4484098.156731393</v>
       </c>
       <c r="AE5" t="n">
-        <v>5976230.30371209</v>
+        <v>6135340.922489168</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.258831434056164e-07</v>
+        <v>1.587928064568383e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.215625</v>
       </c>
       <c r="AH5" t="n">
-        <v>5405867.271217493</v>
+        <v>5549792.595851637</v>
       </c>
     </row>
     <row r="6">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4024.880073498281</v>
+        <v>4141.253505303755</v>
       </c>
       <c r="AB6" t="n">
-        <v>5507.018481737584</v>
+        <v>5666.245745167313</v>
       </c>
       <c r="AC6" t="n">
-        <v>4981.436366989324</v>
+        <v>5125.467203874181</v>
       </c>
       <c r="AD6" t="n">
-        <v>4024880.073498281</v>
+        <v>4141253.505303755</v>
       </c>
       <c r="AE6" t="n">
-        <v>5507018.481737584</v>
+        <v>5666245.745167312</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.554388212917425e-07</v>
+        <v>1.644754857508111e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.553125</v>
       </c>
       <c r="AH6" t="n">
-        <v>4981436.366989324</v>
+        <v>5125467.203874181</v>
       </c>
     </row>
     <row r="7">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3779.377093389841</v>
+        <v>3884.104737437862</v>
       </c>
       <c r="AB7" t="n">
-        <v>5171.110473526115</v>
+        <v>5314.403456370201</v>
       </c>
       <c r="AC7" t="n">
-        <v>4677.586947631721</v>
+        <v>4807.204249306126</v>
       </c>
       <c r="AD7" t="n">
-        <v>3779377.093389841</v>
+        <v>3884104.737437862</v>
       </c>
       <c r="AE7" t="n">
-        <v>5171110.473526116</v>
+        <v>5314403.456370201</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.753965213076318e-07</v>
+        <v>1.683127588823082e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.13020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4677586.947631721</v>
+        <v>4807204.249306126</v>
       </c>
     </row>
     <row r="8">
@@ -12645,28 +12645,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3554.331054334661</v>
+        <v>3670.619145285564</v>
       </c>
       <c r="AB8" t="n">
-        <v>4863.192554560264</v>
+        <v>5022.303050867796</v>
       </c>
       <c r="AC8" t="n">
-        <v>4399.056282686468</v>
+        <v>4542.981496539387</v>
       </c>
       <c r="AD8" t="n">
-        <v>3554331.054334661</v>
+        <v>3670619.145285564</v>
       </c>
       <c r="AE8" t="n">
-        <v>4863192.554560265</v>
+        <v>5022303.050867796</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.904790579608611e-07</v>
+        <v>1.712126828519129e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.82291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4399056.282686468</v>
+        <v>4542981.496539387</v>
       </c>
     </row>
     <row r="9">
@@ -12751,28 +12751,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3443.187709080119</v>
+        <v>3548.00060447416</v>
       </c>
       <c r="AB9" t="n">
-        <v>4711.121326284656</v>
+        <v>4854.530953781392</v>
       </c>
       <c r="AC9" t="n">
-        <v>4261.49851900418</v>
+        <v>4391.221332929297</v>
       </c>
       <c r="AD9" t="n">
-        <v>3443187.70908012</v>
+        <v>3548000.60447416</v>
       </c>
       <c r="AE9" t="n">
-        <v>4711121.326284656</v>
+        <v>4854530.953781391</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.974871052946847e-07</v>
+        <v>1.725601222721332e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4261498.51900418</v>
+        <v>4391221.332929297</v>
       </c>
     </row>
     <row r="10">
@@ -12857,28 +12857,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3437.2169776984</v>
+        <v>3542.029873092441</v>
       </c>
       <c r="AB10" t="n">
-        <v>4702.95190819811</v>
+        <v>4846.361535694844</v>
       </c>
       <c r="AC10" t="n">
-        <v>4254.108778713964</v>
+        <v>4383.831592639081</v>
       </c>
       <c r="AD10" t="n">
-        <v>3437216.9776984</v>
+        <v>3542029.873092441</v>
       </c>
       <c r="AE10" t="n">
-        <v>4702951.90819811</v>
+        <v>4846361.535694844</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.990105938455159e-07</v>
+        <v>1.728530438852246e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.653125</v>
       </c>
       <c r="AH10" t="n">
-        <v>4254108.778713964</v>
+        <v>4383831.592639081</v>
       </c>
     </row>
     <row r="11">
@@ -12963,28 +12963,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3455.675924093289</v>
+        <v>3560.488819487331</v>
       </c>
       <c r="AB11" t="n">
-        <v>4728.20825300684</v>
+        <v>4871.617880503574</v>
       </c>
       <c r="AC11" t="n">
-        <v>4276.954693421651</v>
+        <v>4406.677507346767</v>
       </c>
       <c r="AD11" t="n">
-        <v>3455675.924093289</v>
+        <v>3560488.819487331</v>
       </c>
       <c r="AE11" t="n">
-        <v>4728208.25300684</v>
+        <v>4871617.880503574</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.990105938455159e-07</v>
+        <v>1.728530438852246e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.653125</v>
       </c>
       <c r="AH11" t="n">
-        <v>4276954.693421651</v>
+        <v>4406677.507346767</v>
       </c>
     </row>
   </sheetData>
@@ -13260,28 +13260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>22440.52706093878</v>
+        <v>22718.66273604428</v>
       </c>
       <c r="AB2" t="n">
-        <v>30704.11913096119</v>
+        <v>31084.67663212054</v>
       </c>
       <c r="AC2" t="n">
-        <v>27773.76109460282</v>
+        <v>28117.99872196731</v>
       </c>
       <c r="AD2" t="n">
-        <v>22440527.06093878</v>
+        <v>22718662.73604428</v>
       </c>
       <c r="AE2" t="n">
-        <v>30704119.13096119</v>
+        <v>31084676.63212054</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.36598898597915e-07</v>
+        <v>6.270582182650552e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.50104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>27773761.09460282</v>
+        <v>28117998.72196731</v>
       </c>
     </row>
     <row r="3">
@@ -13366,28 +13366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7937.212656285977</v>
+        <v>8094.24918479719</v>
       </c>
       <c r="AB3" t="n">
-        <v>10860.04452144008</v>
+        <v>11074.90882771182</v>
       </c>
       <c r="AC3" t="n">
-        <v>9823.577114481641</v>
+        <v>10017.93507292675</v>
       </c>
       <c r="AD3" t="n">
-        <v>7937212.656285977</v>
+        <v>8094249.184797189</v>
       </c>
       <c r="AE3" t="n">
-        <v>10860044.52144008</v>
+        <v>11074908.82771182</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.095248731709731e-07</v>
+        <v>1.13549860843541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.13333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>9823577.114481641</v>
+        <v>10017935.07292675</v>
       </c>
     </row>
     <row r="4">
@@ -13472,28 +13472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6106.136530383616</v>
+        <v>6239.157940216681</v>
       </c>
       <c r="AB4" t="n">
-        <v>8354.685384602912</v>
+        <v>8536.691146026946</v>
       </c>
       <c r="AC4" t="n">
-        <v>7557.325937370679</v>
+        <v>7721.961324371086</v>
       </c>
       <c r="AD4" t="n">
-        <v>6106136.530383616</v>
+        <v>6239157.940216681</v>
       </c>
       <c r="AE4" t="n">
-        <v>8354685.384602912</v>
+        <v>8536691.146026947</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.09813404775944e-07</v>
+        <v>1.322328536288957e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>7557325.937370678</v>
+        <v>7721961.324371086</v>
       </c>
     </row>
     <row r="5">
@@ -13578,28 +13578,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5373.364713158992</v>
+        <v>5494.208016206668</v>
       </c>
       <c r="AB5" t="n">
-        <v>7352.074656665118</v>
+        <v>7517.417795125227</v>
       </c>
       <c r="AC5" t="n">
-        <v>6650.402970134309</v>
+        <v>6799.965991520331</v>
       </c>
       <c r="AD5" t="n">
-        <v>5373364.713158992</v>
+        <v>5494208.016206668</v>
       </c>
       <c r="AE5" t="n">
-        <v>7352074.656665117</v>
+        <v>7517417.795125226</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.628986832354666e-07</v>
+        <v>1.421222383730497e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.07708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>6650402.970134309</v>
+        <v>6799965.991520331</v>
       </c>
     </row>
     <row r="6">
@@ -13684,28 +13684,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4944.382166511214</v>
+        <v>5065.140128704318</v>
       </c>
       <c r="AB6" t="n">
-        <v>6765.121810967321</v>
+        <v>6930.348182305233</v>
       </c>
       <c r="AC6" t="n">
-        <v>6119.468080236439</v>
+        <v>6268.925478590524</v>
       </c>
       <c r="AD6" t="n">
-        <v>4944382.166511213</v>
+        <v>5065140.128704318</v>
       </c>
       <c r="AE6" t="n">
-        <v>6765121.810967321</v>
+        <v>6930348.182305233</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.964262275256914e-07</v>
+        <v>1.483681655798838e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.23229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>6119468.08023644</v>
+        <v>6268925.478590524</v>
       </c>
     </row>
     <row r="7">
@@ -13790,28 +13790,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4653.348325653631</v>
+        <v>4774.191539192755</v>
       </c>
       <c r="AB7" t="n">
-        <v>6366.916470399062</v>
+        <v>6532.259486389622</v>
       </c>
       <c r="AC7" t="n">
-        <v>5759.266898487324</v>
+        <v>5908.82980909212</v>
       </c>
       <c r="AD7" t="n">
-        <v>4653348.325653631</v>
+        <v>4774191.539192755</v>
       </c>
       <c r="AE7" t="n">
-        <v>6366916.470399062</v>
+        <v>6532259.486389622</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.187779237191746e-07</v>
+        <v>1.525321170511065e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.70729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5759266.898487325</v>
+        <v>5908829.80909212</v>
       </c>
     </row>
     <row r="8">
@@ -13896,28 +13896,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4435.941425267043</v>
+        <v>4544.69187287535</v>
       </c>
       <c r="AB8" t="n">
-        <v>6069.450757974592</v>
+        <v>6218.247918123425</v>
       </c>
       <c r="AC8" t="n">
-        <v>5490.190896160908</v>
+        <v>5624.787064183257</v>
       </c>
       <c r="AD8" t="n">
-        <v>4435941.425267044</v>
+        <v>4544691.87287535</v>
       </c>
       <c r="AE8" t="n">
-        <v>6069450.757974592</v>
+        <v>6218247.918123425</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.358357971299908e-07</v>
+        <v>1.557098694896712e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.32708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>5490190.896160908</v>
+        <v>5624787.064183257</v>
       </c>
     </row>
     <row r="9">
@@ -14002,28 +14002,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4256.18029667289</v>
+        <v>4364.930744281195</v>
       </c>
       <c r="AB9" t="n">
-        <v>5823.493651330769</v>
+        <v>5972.290811479603</v>
       </c>
       <c r="AC9" t="n">
-        <v>5267.707590572214</v>
+        <v>5402.303758594563</v>
       </c>
       <c r="AD9" t="n">
-        <v>4256180.29667289</v>
+        <v>4364930.744281195</v>
       </c>
       <c r="AE9" t="n">
-        <v>5823493.651330769</v>
+        <v>5972290.811479603</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.48335100922399e-07</v>
+        <v>1.580383949834471e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.05520833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>5267707.590572214</v>
+        <v>5402303.758594563</v>
       </c>
     </row>
     <row r="10">
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4085.658760187489</v>
+        <v>4206.416632872041</v>
       </c>
       <c r="AB10" t="n">
-        <v>5590.17856223218</v>
+        <v>5755.404811100541</v>
       </c>
       <c r="AC10" t="n">
-        <v>5056.659766117417</v>
+        <v>5206.117053690275</v>
       </c>
       <c r="AD10" t="n">
-        <v>4085658.760187489</v>
+        <v>4206416.632872041</v>
       </c>
       <c r="AE10" t="n">
-        <v>5590178.56223218</v>
+        <v>5755404.811100542</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.583345439563258e-07</v>
+        <v>1.599012153784678e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.84479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>5056659.766117417</v>
+        <v>5206117.053690274</v>
       </c>
     </row>
     <row r="11">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3947.318937545065</v>
+        <v>4056.15463649939</v>
       </c>
       <c r="AB11" t="n">
-        <v>5400.895913770566</v>
+        <v>5549.809718572048</v>
       </c>
       <c r="AC11" t="n">
-        <v>4885.441987965121</v>
+        <v>5020.143668238184</v>
       </c>
       <c r="AD11" t="n">
-        <v>3947318.937545065</v>
+        <v>4056154.63649939</v>
       </c>
       <c r="AE11" t="n">
-        <v>5400895.913770566</v>
+        <v>5549809.718572048</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.665693793960302e-07</v>
+        <v>1.614353027626025e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.67708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>4885441.987965121</v>
+        <v>5020143.668238183</v>
       </c>
     </row>
     <row r="12">
@@ -14320,28 +14320,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3835.88113512867</v>
+        <v>3944.716834082996</v>
       </c>
       <c r="AB12" t="n">
-        <v>5248.421796215577</v>
+        <v>5397.335601017059</v>
       </c>
       <c r="AC12" t="n">
-        <v>4747.519786190819</v>
+        <v>4882.22146646388</v>
       </c>
       <c r="AD12" t="n">
-        <v>3835881.13512867</v>
+        <v>3944716.834082996</v>
       </c>
       <c r="AE12" t="n">
-        <v>5248421.796215577</v>
+        <v>5397335.601017059</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.721573034444009e-07</v>
+        <v>1.624762906304081e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.56354166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>4747519.786190819</v>
+        <v>4882221.466463881</v>
       </c>
     </row>
     <row r="13">
@@ -14426,28 +14426,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3808.345372226996</v>
+        <v>3917.181071181322</v>
       </c>
       <c r="AB13" t="n">
-        <v>5210.746150621379</v>
+        <v>5359.659955422863</v>
       </c>
       <c r="AC13" t="n">
-        <v>4713.439851334034</v>
+        <v>4848.141531607095</v>
       </c>
       <c r="AD13" t="n">
-        <v>3808345.372226996</v>
+        <v>3917181.071181322</v>
       </c>
       <c r="AE13" t="n">
-        <v>5210746.15062138</v>
+        <v>5359659.955422863</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.74363062937179e-07</v>
+        <v>1.628872068940157e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.51875</v>
       </c>
       <c r="AH13" t="n">
-        <v>4713439.851334034</v>
+        <v>4848141.531607095</v>
       </c>
     </row>
     <row r="14">
@@ -14532,28 +14532,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3819.844603617185</v>
+        <v>3928.680302571511</v>
       </c>
       <c r="AB14" t="n">
-        <v>5226.479906319722</v>
+        <v>5375.393711121205</v>
       </c>
       <c r="AC14" t="n">
-        <v>4727.67199947099</v>
+        <v>4862.373679744052</v>
       </c>
       <c r="AD14" t="n">
-        <v>3819844.603617185</v>
+        <v>3928680.302571511</v>
       </c>
       <c r="AE14" t="n">
-        <v>5226479.906319723</v>
+        <v>5375393.711121205</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.740689616714753e-07</v>
+        <v>1.62832418058868e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.52291666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>4727671.99947099</v>
+        <v>4862373.679744053</v>
       </c>
     </row>
   </sheetData>
@@ -14829,28 +14829,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8328.840442929712</v>
+        <v>8495.477103065758</v>
       </c>
       <c r="AB2" t="n">
-        <v>11395.88693652464</v>
+        <v>11623.88656641339</v>
       </c>
       <c r="AC2" t="n">
-        <v>10308.27948153006</v>
+        <v>10514.51914674171</v>
       </c>
       <c r="AD2" t="n">
-        <v>8328840.442929712</v>
+        <v>8495477.103065757</v>
       </c>
       <c r="AE2" t="n">
-        <v>11395886.93652464</v>
+        <v>11623886.56641339</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.623700381108715e-07</v>
+        <v>1.127269253904448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10308279.48153006</v>
+        <v>10514519.14674171</v>
       </c>
     </row>
     <row r="3">
@@ -14935,28 +14935,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4555.164186609245</v>
+        <v>4677.318912788853</v>
       </c>
       <c r="AB3" t="n">
-        <v>6232.576599780017</v>
+        <v>6399.714085225143</v>
       </c>
       <c r="AC3" t="n">
-        <v>5637.748236572976</v>
+        <v>5788.934354986146</v>
       </c>
       <c r="AD3" t="n">
-        <v>4555164.186609245</v>
+        <v>4677318.912788853</v>
       </c>
       <c r="AE3" t="n">
-        <v>6232576.599780018</v>
+        <v>6399714.085225143</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.831818097934428e-07</v>
+        <v>1.569885866187156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.15833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>5637748.236572975</v>
+        <v>5788934.354986146</v>
       </c>
     </row>
     <row r="4">
@@ -15041,28 +15041,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3751.458751541958</v>
+        <v>3862.492994232455</v>
       </c>
       <c r="AB4" t="n">
-        <v>5132.911366539525</v>
+        <v>5284.833315873744</v>
       </c>
       <c r="AC4" t="n">
-        <v>4643.033509803148</v>
+        <v>4780.456241516698</v>
       </c>
       <c r="AD4" t="n">
-        <v>3751458.751541958</v>
+        <v>3862492.994232455</v>
       </c>
       <c r="AE4" t="n">
-        <v>5132911.366539525</v>
+        <v>5284833.315873744</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.611340923038607e-07</v>
+        <v>1.726141010292724e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.24270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4643033.509803148</v>
+        <v>4780456.241516698</v>
       </c>
     </row>
     <row r="5">
@@ -15147,28 +15147,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3331.706976647888</v>
+        <v>3431.706076703849</v>
       </c>
       <c r="AB5" t="n">
-        <v>4558.588469988063</v>
+        <v>4695.411650333574</v>
       </c>
       <c r="AC5" t="n">
-        <v>4123.523184431332</v>
+        <v>4247.288152477201</v>
       </c>
       <c r="AD5" t="n">
-        <v>3331706.976647888</v>
+        <v>3431706.076703849</v>
       </c>
       <c r="AE5" t="n">
-        <v>4558588.469988064</v>
+        <v>4695411.650333573</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.018601827582829e-07</v>
+        <v>1.807776350886652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>4123523.184431332</v>
+        <v>4247288.152477201</v>
       </c>
     </row>
     <row r="6">
@@ -15253,28 +15253,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3081.711985077609</v>
+        <v>3192.746138259557</v>
       </c>
       <c r="AB6" t="n">
-        <v>4216.534293520947</v>
+        <v>4368.456120385617</v>
       </c>
       <c r="AC6" t="n">
-        <v>3814.114178490198</v>
+        <v>3951.536799422522</v>
       </c>
       <c r="AD6" t="n">
-        <v>3081711.985077609</v>
+        <v>3192746.138259557</v>
       </c>
       <c r="AE6" t="n">
-        <v>4216534.293520947</v>
+        <v>4368456.120385617</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.228595731488445e-07</v>
+        <v>1.849869573380397e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.95520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3814114.178490198</v>
+        <v>3951536.799422522</v>
       </c>
     </row>
     <row r="7">
@@ -15359,28 +15359,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3066.87376878362</v>
+        <v>3177.907921965567</v>
       </c>
       <c r="AB7" t="n">
-        <v>4196.231991371607</v>
+        <v>4348.153818236277</v>
       </c>
       <c r="AC7" t="n">
-        <v>3795.749499563532</v>
+        <v>3933.172120495855</v>
       </c>
       <c r="AD7" t="n">
-        <v>3066873.76878362</v>
+        <v>3177907.921965567</v>
       </c>
       <c r="AE7" t="n">
-        <v>4196231.991371607</v>
+        <v>4348153.818236277</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.252458675114084e-07</v>
+        <v>1.854652894118322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.91145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3795749.499563532</v>
+        <v>3933172.120495855</v>
       </c>
     </row>
     <row r="8">
@@ -15465,28 +15465,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3086.321098022902</v>
+        <v>3197.35525120485</v>
       </c>
       <c r="AB8" t="n">
-        <v>4222.84068519241</v>
+        <v>4374.76251205708</v>
       </c>
       <c r="AC8" t="n">
-        <v>3819.818696991612</v>
+        <v>3957.241317923936</v>
       </c>
       <c r="AD8" t="n">
-        <v>3086321.098022902</v>
+        <v>3197355.25120485</v>
       </c>
       <c r="AE8" t="n">
-        <v>4222840.68519241</v>
+        <v>4374762.51205708</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.252458675114084e-07</v>
+        <v>1.854652894118322e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.91145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3819818.696991612</v>
+        <v>3957241.317923936</v>
       </c>
     </row>
   </sheetData>
@@ -15762,28 +15762,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5569.868529575564</v>
+        <v>5708.086174464309</v>
       </c>
       <c r="AB2" t="n">
-        <v>7620.939847422827</v>
+        <v>7810.055326891755</v>
       </c>
       <c r="AC2" t="n">
-        <v>6893.608044440759</v>
+        <v>7064.674607974406</v>
       </c>
       <c r="AD2" t="n">
-        <v>5569868.529575564</v>
+        <v>5708086.174464309</v>
       </c>
       <c r="AE2" t="n">
-        <v>7620939.847422827</v>
+        <v>7810055.326891755</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.779408012459879e-07</v>
+        <v>1.418294553212123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.4625</v>
       </c>
       <c r="AH2" t="n">
-        <v>6893608.044440759</v>
+        <v>7064674.607974406</v>
       </c>
     </row>
     <row r="3">
@@ -15868,28 +15868,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3411.613078710152</v>
+        <v>3528.540136076601</v>
       </c>
       <c r="AB3" t="n">
-        <v>4667.919524038084</v>
+        <v>4827.904282384575</v>
       </c>
       <c r="AC3" t="n">
-        <v>4222.419836129911</v>
+        <v>4367.135873679826</v>
       </c>
       <c r="AD3" t="n">
-        <v>3411613.078710151</v>
+        <v>3528540.136076601</v>
       </c>
       <c r="AE3" t="n">
-        <v>4667919.524038084</v>
+        <v>4827904.282384574</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.713304162677596e-07</v>
+        <v>1.82287772202135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.809375</v>
       </c>
       <c r="AH3" t="n">
-        <v>4222419.836129911</v>
+        <v>4367135.873679826</v>
       </c>
     </row>
     <row r="4">
@@ -15974,28 +15974,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2844.618345153961</v>
+        <v>2940.340334869788</v>
       </c>
       <c r="AB4" t="n">
-        <v>3892.132315544217</v>
+        <v>4023.103364829566</v>
       </c>
       <c r="AC4" t="n">
-        <v>3520.672669990544</v>
+        <v>3639.144026151115</v>
       </c>
       <c r="AD4" t="n">
-        <v>2844618.345153961</v>
+        <v>2940340.334869788</v>
       </c>
       <c r="AE4" t="n">
-        <v>3892132.315544217</v>
+        <v>4023103.364829566</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.364564819948859e-07</v>
+        <v>1.959125524370987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.43333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3520672.669990544</v>
+        <v>3639144.026151115</v>
       </c>
     </row>
     <row r="5">
@@ -16080,28 +16080,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2778.483213782966</v>
+        <v>2874.205203498793</v>
       </c>
       <c r="AB5" t="n">
-        <v>3801.64331112634</v>
+        <v>3932.614360411688</v>
       </c>
       <c r="AC5" t="n">
-        <v>3438.819809152196</v>
+        <v>3557.291165312768</v>
       </c>
       <c r="AD5" t="n">
-        <v>2778483.213782966</v>
+        <v>2874205.203498793</v>
       </c>
       <c r="AE5" t="n">
-        <v>3801643.31112634</v>
+        <v>3932614.360411688</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.449079561732152e-07</v>
+        <v>1.976806536889642e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.26770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3438819.809152196</v>
+        <v>3557291.165312768</v>
       </c>
     </row>
   </sheetData>
@@ -29470,28 +29470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4043.916736982393</v>
+        <v>4156.836063722779</v>
       </c>
       <c r="AB2" t="n">
-        <v>5533.065284554868</v>
+        <v>5687.566489050179</v>
       </c>
       <c r="AC2" t="n">
-        <v>5004.997299502642</v>
+        <v>5144.753125884719</v>
       </c>
       <c r="AD2" t="n">
-        <v>4043916.736982393</v>
+        <v>4156836.063722779</v>
       </c>
       <c r="AE2" t="n">
-        <v>5533065.284554868</v>
+        <v>5687566.48905018</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.750111771787503e-07</v>
+        <v>1.684762519213555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.040625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5004997.299502642</v>
+        <v>5144753.125884719</v>
       </c>
     </row>
     <row r="3">
@@ -29576,28 +29576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2636.64389253868</v>
+        <v>2739.212403713048</v>
       </c>
       <c r="AB3" t="n">
-        <v>3607.572494290677</v>
+        <v>3747.91125628281</v>
       </c>
       <c r="AC3" t="n">
-        <v>3263.270838695234</v>
+        <v>3390.215866209523</v>
       </c>
       <c r="AD3" t="n">
-        <v>2636643.89253868</v>
+        <v>2739212.403713048</v>
       </c>
       <c r="AE3" t="n">
-        <v>3607572.494290677</v>
+        <v>3747911.25628281</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.421502830733049e-07</v>
+        <v>2.048098828931144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.95416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3263270.838695235</v>
+        <v>3390215.866209523</v>
       </c>
     </row>
     <row r="4">
@@ -29682,28 +29682,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2565.421687313037</v>
+        <v>2667.990198487405</v>
       </c>
       <c r="AB4" t="n">
-        <v>3510.123130999009</v>
+        <v>3650.461892991143</v>
       </c>
       <c r="AC4" t="n">
-        <v>3175.121905865088</v>
+        <v>3302.066933379375</v>
       </c>
       <c r="AD4" t="n">
-        <v>2565421.687313037</v>
+        <v>2667990.198487405</v>
       </c>
       <c r="AE4" t="n">
-        <v>3510123.13099901</v>
+        <v>3650461.892991143</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.538071643049251e-07</v>
+        <v>2.073439207455037e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.721875</v>
       </c>
       <c r="AH4" t="n">
-        <v>3175121.905865088</v>
+        <v>3302066.933379375</v>
       </c>
     </row>
   </sheetData>
@@ -29979,28 +29979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2192.75806323893</v>
+        <v>2297.308873135805</v>
       </c>
       <c r="AB2" t="n">
-        <v>3000.228319782025</v>
+        <v>3143.279350339139</v>
       </c>
       <c r="AC2" t="n">
-        <v>2713.890739788809</v>
+        <v>2843.289180762928</v>
       </c>
       <c r="AD2" t="n">
-        <v>2192758.06323893</v>
+        <v>2297308.873135805</v>
       </c>
       <c r="AE2" t="n">
-        <v>3000228.319782025</v>
+        <v>3143279.350339139</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.302586084956659e-07</v>
+        <v>2.212645183356389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.60208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2713890.739788809</v>
+        <v>2843289.180762928</v>
       </c>
     </row>
     <row r="3">
@@ -30085,28 +30085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2223.420988378265</v>
+        <v>2327.971798275139</v>
       </c>
       <c r="AB3" t="n">
-        <v>3042.182686710448</v>
+        <v>3185.233717267563</v>
       </c>
       <c r="AC3" t="n">
-        <v>2751.841040820906</v>
+        <v>2881.239481795027</v>
       </c>
       <c r="AD3" t="n">
-        <v>2223420.988378264</v>
+        <v>2327971.798275139</v>
       </c>
       <c r="AE3" t="n">
-        <v>3042182.686710448</v>
+        <v>3185233.717267563</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.308105815624156e-07</v>
+        <v>2.213958066178792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.590625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2751841.040820906</v>
+        <v>2881239.481795026</v>
       </c>
     </row>
   </sheetData>
@@ -30382,28 +30382,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12036.1481035294</v>
+        <v>12231.95820930299</v>
       </c>
       <c r="AB2" t="n">
-        <v>16468.38883262828</v>
+        <v>16736.30485787991</v>
       </c>
       <c r="AC2" t="n">
-        <v>14896.66891597051</v>
+        <v>15139.01541179462</v>
       </c>
       <c r="AD2" t="n">
-        <v>12036148.1035294</v>
+        <v>12231958.20930299</v>
       </c>
       <c r="AE2" t="n">
-        <v>16468388.83262828</v>
+        <v>16736304.85787991</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.676101243010886e-07</v>
+        <v>9.074340109744936e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.27604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>14896668.91597051</v>
+        <v>15139015.41179462</v>
       </c>
     </row>
     <row r="3">
@@ -30488,28 +30488,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5716.225289745826</v>
+        <v>5854.419024505096</v>
       </c>
       <c r="AB3" t="n">
-        <v>7821.191623492351</v>
+        <v>8010.274388067292</v>
       </c>
       <c r="AC3" t="n">
-        <v>7074.748072057332</v>
+        <v>7245.785042960561</v>
       </c>
       <c r="AD3" t="n">
-        <v>5716225.289745825</v>
+        <v>5854419.024505096</v>
       </c>
       <c r="AE3" t="n">
-        <v>7821191.623492351</v>
+        <v>8010274.388067292</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.110320448816487e-07</v>
+        <v>1.379813282235319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.540625</v>
       </c>
       <c r="AH3" t="n">
-        <v>7074748.072057332</v>
+        <v>7245785.042960562</v>
       </c>
     </row>
     <row r="4">
@@ -30594,28 +30594,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4621.810919348373</v>
+        <v>4736.958231013889</v>
       </c>
       <c r="AB4" t="n">
-        <v>6323.765599760033</v>
+        <v>6481.315231521667</v>
       </c>
       <c r="AC4" t="n">
-        <v>5720.23428637946</v>
+        <v>5862.747602408053</v>
       </c>
       <c r="AD4" t="n">
-        <v>4621810.919348373</v>
+        <v>4736958.231013888</v>
       </c>
       <c r="AE4" t="n">
-        <v>6323765.599760033</v>
+        <v>6481315.231521667</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.979684450889915e-07</v>
+        <v>1.548520164828471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.084375</v>
       </c>
       <c r="AH4" t="n">
-        <v>5720234.28637946</v>
+        <v>5862747.602408053</v>
       </c>
     </row>
     <row r="5">
@@ -30700,28 +30700,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4107.782268632629</v>
+        <v>4222.929490789593</v>
       </c>
       <c r="AB5" t="n">
-        <v>5620.448922507129</v>
+        <v>5777.998431799215</v>
       </c>
       <c r="AC5" t="n">
-        <v>5084.041165692443</v>
+        <v>5226.554370939811</v>
       </c>
       <c r="AD5" t="n">
-        <v>4107782.268632629</v>
+        <v>4222929.490789593</v>
       </c>
       <c r="AE5" t="n">
-        <v>5620448.92250713</v>
+        <v>5777998.431799215</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.435138866135464e-07</v>
+        <v>1.63690465553214e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>5084041.165692443</v>
+        <v>5226554.370939811</v>
       </c>
     </row>
     <row r="6">
@@ -30806,28 +30806,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3794.936280284524</v>
+        <v>3898.560335648886</v>
       </c>
       <c r="AB6" t="n">
-        <v>5192.399239458304</v>
+        <v>5334.18224357851</v>
       </c>
       <c r="AC6" t="n">
-        <v>4696.843943622311</v>
+        <v>4825.095376822974</v>
       </c>
       <c r="AD6" t="n">
-        <v>3794936.280284524</v>
+        <v>3898560.335648886</v>
       </c>
       <c r="AE6" t="n">
-        <v>5192399.239458304</v>
+        <v>5334182.243578509</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.718259178315129e-07</v>
+        <v>1.691846365969556e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4696843.943622311</v>
+        <v>4825095.376822974</v>
       </c>
     </row>
     <row r="7">
@@ -30912,28 +30912,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3539.830656866516</v>
+        <v>3654.892538168909</v>
       </c>
       <c r="AB7" t="n">
-        <v>4843.35247103196</v>
+        <v>5000.785213201848</v>
       </c>
       <c r="AC7" t="n">
-        <v>4381.109708884374</v>
+        <v>4523.517291099803</v>
       </c>
       <c r="AD7" t="n">
-        <v>3539830.656866516</v>
+        <v>3654892.538168909</v>
       </c>
       <c r="AE7" t="n">
-        <v>4843352.47103196</v>
+        <v>5000785.213201848</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.909057649566643e-07</v>
+        <v>1.728872301264336e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.98958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4381109.708884374</v>
+        <v>4523517.291099803</v>
       </c>
     </row>
     <row r="8">
@@ -31018,28 +31018,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3362.086178738776</v>
+        <v>3465.795485449158</v>
       </c>
       <c r="AB8" t="n">
-        <v>4600.154634524625</v>
+        <v>4742.054283297479</v>
       </c>
       <c r="AC8" t="n">
-        <v>4161.122332563</v>
+        <v>4289.479278014376</v>
       </c>
       <c r="AD8" t="n">
-        <v>3362086.178738776</v>
+        <v>3465795.485449158</v>
       </c>
       <c r="AE8" t="n">
-        <v>4600154.634524625</v>
+        <v>4742054.283297479</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.032153437470845e-07</v>
+        <v>1.752760001454517e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.74479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4161122.332563</v>
+        <v>4289479.278014376</v>
       </c>
     </row>
     <row r="9">
@@ -31124,28 +31124,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3341.200931876447</v>
+        <v>3444.910238586829</v>
       </c>
       <c r="AB9" t="n">
-        <v>4571.578518375522</v>
+        <v>4713.478167148376</v>
       </c>
       <c r="AC9" t="n">
-        <v>4135.273480832338</v>
+        <v>4263.630426283714</v>
       </c>
       <c r="AD9" t="n">
-        <v>3341200.931876447</v>
+        <v>3444910.238586829</v>
       </c>
       <c r="AE9" t="n">
-        <v>4571578.518375522</v>
+        <v>4713478.167148376</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.055233897702884e-07</v>
+        <v>1.757238945240176e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.70208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4135273.480832338</v>
+        <v>4263630.426283713</v>
       </c>
     </row>
     <row r="10">
@@ -31230,28 +31230,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3360.291322953632</v>
+        <v>3464.000629664014</v>
       </c>
       <c r="AB10" t="n">
-        <v>4597.698833655943</v>
+        <v>4739.598482428796</v>
       </c>
       <c r="AC10" t="n">
-        <v>4158.900909882486</v>
+        <v>4287.257855333863</v>
       </c>
       <c r="AD10" t="n">
-        <v>3360291.322953632</v>
+        <v>3464000.629664014</v>
       </c>
       <c r="AE10" t="n">
-        <v>4597698.833655942</v>
+        <v>4739598.482428797</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.053695200354081e-07</v>
+        <v>1.756940348987799e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.70208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4158900.909882486</v>
+        <v>4287257.855333863</v>
       </c>
     </row>
   </sheetData>
@@ -31527,28 +31527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>19684.73464199999</v>
+        <v>19948.35957663616</v>
       </c>
       <c r="AB2" t="n">
-        <v>26933.52236638785</v>
+        <v>27294.22563226837</v>
       </c>
       <c r="AC2" t="n">
-        <v>24363.02479317472</v>
+        <v>24689.30304560979</v>
       </c>
       <c r="AD2" t="n">
-        <v>19684734.64199999</v>
+        <v>19948359.57663616</v>
       </c>
       <c r="AE2" t="n">
-        <v>26933522.36638785</v>
+        <v>27294225.63226837</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.610466370703569e-07</v>
+        <v>6.774651041936004e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.78645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>24363024.79317472</v>
+        <v>24689303.04560979</v>
       </c>
     </row>
     <row r="3">
@@ -31633,28 +31633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7450.828621117946</v>
+        <v>7606.572079416992</v>
       </c>
       <c r="AB3" t="n">
-        <v>10194.55242677392</v>
+        <v>10407.64749733514</v>
       </c>
       <c r="AC3" t="n">
-        <v>9221.598651306425</v>
+        <v>9414.356227414084</v>
       </c>
       <c r="AD3" t="n">
-        <v>7450828.621117946</v>
+        <v>7606572.079416992</v>
       </c>
       <c r="AE3" t="n">
-        <v>10194552.42677392</v>
+        <v>10407647.49733514</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.283842496526376e-07</v>
+        <v>1.179095323027712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.57916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>9221598.651306426</v>
+        <v>9414356.227414085</v>
       </c>
     </row>
     <row r="4">
@@ -31739,28 +31739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5800.058895652808</v>
+        <v>5931.743441197586</v>
       </c>
       <c r="AB4" t="n">
-        <v>7935.89646157196</v>
+        <v>8116.07306629847</v>
       </c>
       <c r="AC4" t="n">
-        <v>7178.505641379869</v>
+        <v>7341.486443830727</v>
       </c>
       <c r="AD4" t="n">
-        <v>5800058.895652808</v>
+        <v>5931743.441197585</v>
       </c>
       <c r="AE4" t="n">
-        <v>7935896.46157196</v>
+        <v>8116073.06629847</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.262449397825907e-07</v>
+        <v>1.362720361536039e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.26666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>7178505.64137987</v>
+        <v>7341486.443830727</v>
       </c>
     </row>
     <row r="5">
@@ -31845,28 +31845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5109.382828109827</v>
+        <v>5241.067284146054</v>
       </c>
       <c r="AB5" t="n">
-        <v>6990.882995481998</v>
+        <v>7171.059477738958</v>
       </c>
       <c r="AC5" t="n">
-        <v>6323.68293415884</v>
+        <v>6486.663625828471</v>
       </c>
       <c r="AD5" t="n">
-        <v>5109382.828109827</v>
+        <v>5241067.284146054</v>
       </c>
       <c r="AE5" t="n">
-        <v>6990882.995481998</v>
+        <v>7171059.477738958</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.778442127602021e-07</v>
+        <v>1.459540836385884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.85729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>6323682.93415884</v>
+        <v>6486663.625828471</v>
       </c>
     </row>
     <row r="6">
@@ -31951,28 +31951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4719.131501570116</v>
+        <v>4827.013067415787</v>
       </c>
       <c r="AB6" t="n">
-        <v>6456.923913836898</v>
+        <v>6604.532231625738</v>
       </c>
       <c r="AC6" t="n">
-        <v>5840.684157849691</v>
+        <v>5974.204944958333</v>
       </c>
       <c r="AD6" t="n">
-        <v>4719131.501570116</v>
+        <v>4827013.067415787</v>
       </c>
       <c r="AE6" t="n">
-        <v>6456923.913836898</v>
+        <v>6604532.231625738</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.103161690305957e-07</v>
+        <v>1.520470962800011e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.06145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>5840684.157849691</v>
+        <v>5974204.944958333</v>
       </c>
     </row>
     <row r="7">
@@ -32057,28 +32057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4442.598218646045</v>
+        <v>4562.381184832718</v>
       </c>
       <c r="AB7" t="n">
-        <v>6078.558876352738</v>
+        <v>6242.451215140863</v>
       </c>
       <c r="AC7" t="n">
-        <v>5498.429748504367</v>
+        <v>5646.68043250289</v>
       </c>
       <c r="AD7" t="n">
-        <v>4442598.218646045</v>
+        <v>4562381.184832717</v>
       </c>
       <c r="AE7" t="n">
-        <v>6078558.876352738</v>
+        <v>6242451.215140863</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.319641398775247e-07</v>
+        <v>1.561091047076095e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.56458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>5498429.748504367</v>
+        <v>5646680.43250289</v>
       </c>
     </row>
     <row r="8">
@@ -32163,28 +32163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4229.692157053993</v>
+        <v>4337.488382045093</v>
       </c>
       <c r="AB8" t="n">
-        <v>5787.251410129947</v>
+        <v>5934.742960796589</v>
       </c>
       <c r="AC8" t="n">
-        <v>5234.924258005294</v>
+        <v>5368.339422081997</v>
       </c>
       <c r="AD8" t="n">
-        <v>4229692.157053993</v>
+        <v>4337488.382045093</v>
       </c>
       <c r="AE8" t="n">
-        <v>5787251.410129947</v>
+        <v>5934742.960796589</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.484225286721077e-07</v>
+        <v>1.591973439916132e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.20416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5234924.258005294</v>
+        <v>5368339.422081998</v>
       </c>
     </row>
     <row r="9">
@@ -32269,28 +32269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4044.200876768276</v>
+        <v>4163.898502100378</v>
       </c>
       <c r="AB9" t="n">
-        <v>5533.454057145275</v>
+        <v>5697.229628811205</v>
       </c>
       <c r="AC9" t="n">
-        <v>5005.348968182667</v>
+        <v>5153.494029149252</v>
       </c>
       <c r="AD9" t="n">
-        <v>4044200.876768276</v>
+        <v>4163898.502100378</v>
       </c>
       <c r="AE9" t="n">
-        <v>5533454.057145275</v>
+        <v>5697229.628811205</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.604327042789656e-07</v>
+        <v>1.614509240096699e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.94895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>5005348.968182667</v>
+        <v>5153494.029149252</v>
       </c>
     </row>
     <row r="10">
@@ -32375,28 +32375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3883.007566050667</v>
+        <v>3990.889042387788</v>
       </c>
       <c r="AB10" t="n">
-        <v>5312.902258074456</v>
+        <v>5460.510453393748</v>
       </c>
       <c r="AC10" t="n">
-        <v>4805.846323268782</v>
+        <v>4939.366999596197</v>
       </c>
       <c r="AD10" t="n">
-        <v>3883007.566050667</v>
+        <v>3990889.042387788</v>
       </c>
       <c r="AE10" t="n">
-        <v>5312902.258074456</v>
+        <v>5460510.453393748</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.70367047064885e-07</v>
+        <v>1.633149963702848e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.74479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>4805846.323268781</v>
+        <v>4939366.999596197</v>
       </c>
     </row>
     <row r="11">
@@ -32481,28 +32481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3754.07975637621</v>
+        <v>3861.96123271333</v>
       </c>
       <c r="AB11" t="n">
-        <v>5136.49754098432</v>
+        <v>5284.105736303612</v>
       </c>
       <c r="AC11" t="n">
-        <v>4646.27742479216</v>
+        <v>4779.798101119575</v>
       </c>
       <c r="AD11" t="n">
-        <v>3754079.75637621</v>
+        <v>3861961.23271333</v>
       </c>
       <c r="AE11" t="n">
-        <v>5136497.54098432</v>
+        <v>5284105.736303612</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.77187640619397e-07</v>
+        <v>1.645948072447368e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.60625</v>
       </c>
       <c r="AH11" t="n">
-        <v>4646277.424792159</v>
+        <v>4779798.101119575</v>
       </c>
     </row>
     <row r="12">
@@ -32587,28 +32587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3705.027753917418</v>
+        <v>3812.909230254538</v>
       </c>
       <c r="AB12" t="n">
-        <v>5069.382427198579</v>
+        <v>5216.990622517871</v>
       </c>
       <c r="AC12" t="n">
-        <v>4585.567683269477</v>
+        <v>4719.088359596893</v>
       </c>
       <c r="AD12" t="n">
-        <v>3705027.753917418</v>
+        <v>3812909.230254538</v>
       </c>
       <c r="AE12" t="n">
-        <v>5069382.427198579</v>
+        <v>5216990.622517871</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.801531160778804e-07</v>
+        <v>1.65151246755368e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.54791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>4585567.683269477</v>
+        <v>4719088.359596893</v>
       </c>
     </row>
     <row r="13">
@@ -32693,28 +32693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3723.082933927407</v>
+        <v>3830.964410264527</v>
       </c>
       <c r="AB13" t="n">
-        <v>5094.086321026573</v>
+        <v>5241.694516345864</v>
       </c>
       <c r="AC13" t="n">
-        <v>4607.913872142661</v>
+        <v>4741.434548470075</v>
       </c>
       <c r="AD13" t="n">
-        <v>3723082.933927407</v>
+        <v>3830964.410264527</v>
       </c>
       <c r="AE13" t="n">
-        <v>5094086.321026573</v>
+        <v>5241694.516345864</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.800048423049562e-07</v>
+        <v>1.651234247798365e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.55104166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>4607913.87214266</v>
+        <v>4741434.548470075</v>
       </c>
     </row>
   </sheetData>
@@ -32990,28 +32990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2058.137362220299</v>
+        <v>2167.974336924528</v>
       </c>
       <c r="AB2" t="n">
-        <v>2816.034337601988</v>
+        <v>2966.318132057649</v>
       </c>
       <c r="AC2" t="n">
-        <v>2547.27597275027</v>
+        <v>2683.216892787713</v>
       </c>
       <c r="AD2" t="n">
-        <v>2058137.362220298</v>
+        <v>2167974.336924527</v>
       </c>
       <c r="AE2" t="n">
-        <v>2816034.337601988</v>
+        <v>2966318.132057649</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.771684079993637e-07</v>
+        <v>2.193731620506733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.62395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2547275.97275027</v>
+        <v>2683216.892787713</v>
       </c>
     </row>
   </sheetData>
@@ -33287,28 +33287,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6409.347942017306</v>
+        <v>6560.657858803535</v>
       </c>
       <c r="AB2" t="n">
-        <v>8769.552614743547</v>
+        <v>8976.581518212888</v>
       </c>
       <c r="AC2" t="n">
-        <v>7932.598821336491</v>
+        <v>8119.869176825599</v>
       </c>
       <c r="AD2" t="n">
-        <v>6409347.942017307</v>
+        <v>6560657.858803536</v>
       </c>
       <c r="AE2" t="n">
-        <v>8769552.614743548</v>
+        <v>8976581.518212888</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.363791049429565e-07</v>
+        <v>1.310484963901711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.72708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7932598.821336491</v>
+        <v>8119869.176825599</v>
       </c>
     </row>
     <row r="3">
@@ -33393,28 +33393,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3803.012964221956</v>
+        <v>3911.067182619365</v>
       </c>
       <c r="AB3" t="n">
-        <v>5203.450114739645</v>
+        <v>5351.294663366666</v>
       </c>
       <c r="AC3" t="n">
-        <v>4706.840138876802</v>
+        <v>4840.574611283982</v>
       </c>
       <c r="AD3" t="n">
-        <v>3803012.964221956</v>
+        <v>3911067.182619365</v>
       </c>
       <c r="AE3" t="n">
-        <v>5203450.114739645</v>
+        <v>5351294.663366666</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.391973878116125e-07</v>
+        <v>1.728145298817268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.26979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4706840.138876802</v>
+        <v>4840574.611283981</v>
       </c>
     </row>
     <row r="4">
@@ -33499,28 +33499,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3138.978596939231</v>
+        <v>3247.032725828089</v>
       </c>
       <c r="AB4" t="n">
-        <v>4294.888998294632</v>
+        <v>4442.733424452103</v>
       </c>
       <c r="AC4" t="n">
-        <v>3884.990820211799</v>
+        <v>4018.72518183775</v>
       </c>
       <c r="AD4" t="n">
-        <v>3138978.596939231</v>
+        <v>3247032.725828089</v>
       </c>
       <c r="AE4" t="n">
-        <v>4294888.998294632</v>
+        <v>4442733.424452104</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.107226759730224e-07</v>
+        <v>1.875436141565266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.67708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3884990.820211798</v>
+        <v>4018725.18183775</v>
       </c>
     </row>
     <row r="5">
@@ -33605,28 +33605,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2877.297229900053</v>
+        <v>2974.537501323119</v>
       </c>
       <c r="AB5" t="n">
-        <v>3936.84500734447</v>
+        <v>4069.893436643523</v>
       </c>
       <c r="AC5" t="n">
-        <v>3561.118045240036</v>
+        <v>3681.468519181425</v>
       </c>
       <c r="AD5" t="n">
-        <v>2877297.229900054</v>
+        <v>2974537.501323119</v>
       </c>
       <c r="AE5" t="n">
-        <v>3936845.00734447</v>
+        <v>4069893.436643523</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.378304335867077e-07</v>
+        <v>1.931258698405832e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.13854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3561118.045240036</v>
+        <v>3681468.519181425</v>
       </c>
     </row>
     <row r="6">
@@ -33711,28 +33711,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2886.64600126809</v>
+        <v>2983.886272691156</v>
       </c>
       <c r="AB6" t="n">
-        <v>3949.636408768903</v>
+        <v>4082.684838067956</v>
       </c>
       <c r="AC6" t="n">
-        <v>3572.688653265365</v>
+        <v>3693.039127206755</v>
       </c>
       <c r="AD6" t="n">
-        <v>2886646.001268091</v>
+        <v>2983886.272691156</v>
       </c>
       <c r="AE6" t="n">
-        <v>3949636.408768903</v>
+        <v>4082684.838067956</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.38810232054672e-07</v>
+        <v>1.933276381183202e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.12083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3572688.653265365</v>
+        <v>3693039.127206755</v>
       </c>
     </row>
   </sheetData>
@@ -34008,28 +34008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9422.568062470158</v>
+        <v>9602.663638875963</v>
       </c>
       <c r="AB2" t="n">
-        <v>12892.37331743708</v>
+        <v>13138.78803033161</v>
       </c>
       <c r="AC2" t="n">
-        <v>11661.94330258</v>
+        <v>11884.84054112108</v>
       </c>
       <c r="AD2" t="n">
-        <v>9422568.062470159</v>
+        <v>9602663.638875963</v>
       </c>
       <c r="AE2" t="n">
-        <v>12892373.31743708</v>
+        <v>13138788.03033161</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.290542230608432e-07</v>
+        <v>1.048153820999751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.95208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>11661943.30258</v>
+        <v>11884840.54112108</v>
       </c>
     </row>
     <row r="3">
@@ -34114,28 +34114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4934.292794319641</v>
+        <v>5058.16717493615</v>
       </c>
       <c r="AB3" t="n">
-        <v>6751.317086823124</v>
+        <v>6920.807479334617</v>
       </c>
       <c r="AC3" t="n">
-        <v>6106.980859589514</v>
+        <v>6260.295326920963</v>
       </c>
       <c r="AD3" t="n">
-        <v>4934292.794319641</v>
+        <v>5058167.17493615</v>
       </c>
       <c r="AE3" t="n">
-        <v>6751317.086823124</v>
+        <v>6920807.479334617</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.574987360199533e-07</v>
+        <v>1.500744460498305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.61875</v>
       </c>
       <c r="AH3" t="n">
-        <v>6106980.859589513</v>
+        <v>6260295.326920963</v>
       </c>
     </row>
     <row r="4">
@@ -34220,28 +34220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4037.092830631014</v>
+        <v>4149.705903918751</v>
       </c>
       <c r="AB4" t="n">
-        <v>5523.72851483541</v>
+        <v>5677.810689845859</v>
       </c>
       <c r="AC4" t="n">
-        <v>4996.551617980971</v>
+        <v>5135.928406464108</v>
       </c>
       <c r="AD4" t="n">
-        <v>4037092.830631014</v>
+        <v>4149705.903918751</v>
       </c>
       <c r="AE4" t="n">
-        <v>5523728.514835411</v>
+        <v>5677810.689845859</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.390972922661873e-07</v>
+        <v>1.662406223677762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.51875</v>
       </c>
       <c r="AH4" t="n">
-        <v>4996551.617980971</v>
+        <v>5135928.406464108</v>
       </c>
     </row>
     <row r="5">
@@ -34326,28 +34326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3593.257139333227</v>
+        <v>3705.784871766391</v>
       </c>
       <c r="AB5" t="n">
-        <v>4916.452941352974</v>
+        <v>5070.418349241225</v>
       </c>
       <c r="AC5" t="n">
-        <v>4447.233572915103</v>
+        <v>4586.5047383663</v>
       </c>
       <c r="AD5" t="n">
-        <v>3593257.139333227</v>
+        <v>3705784.871766391</v>
       </c>
       <c r="AE5" t="n">
-        <v>4916452.941352975</v>
+        <v>5070418.349241225</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.815474082324362e-07</v>
+        <v>1.746507718973433e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>4447233.572915102</v>
+        <v>4586504.7383663</v>
       </c>
     </row>
     <row r="6">
@@ -34432,28 +34432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3300.368482078261</v>
+        <v>3401.634996691203</v>
       </c>
       <c r="AB6" t="n">
-        <v>4515.709759161094</v>
+        <v>4654.267072017848</v>
       </c>
       <c r="AC6" t="n">
-        <v>4084.73675758504</v>
+        <v>4210.070354969151</v>
       </c>
       <c r="AD6" t="n">
-        <v>3300368.482078261</v>
+        <v>3401634.996691203</v>
       </c>
       <c r="AE6" t="n">
-        <v>4515709.759161093</v>
+        <v>4654267.072017848</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.073319231156392e-07</v>
+        <v>1.797591590190062e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.05</v>
       </c>
       <c r="AH6" t="n">
-        <v>4084736.75758504</v>
+        <v>4210070.35496915</v>
       </c>
     </row>
     <row r="7">
@@ -34538,28 +34538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3153.691534205062</v>
+        <v>3266.133925783654</v>
       </c>
       <c r="AB7" t="n">
-        <v>4315.019888150725</v>
+        <v>4468.868528916777</v>
       </c>
       <c r="AC7" t="n">
-        <v>3903.200446193906</v>
+        <v>4042.365988613165</v>
       </c>
       <c r="AD7" t="n">
-        <v>3153691.534205061</v>
+        <v>3266133.925783654</v>
       </c>
       <c r="AE7" t="n">
-        <v>4315019.888150725</v>
+        <v>4468868.528916777</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.181802860847917e-07</v>
+        <v>1.8190841945434e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.8375</v>
       </c>
       <c r="AH7" t="n">
-        <v>3903200.446193906</v>
+        <v>4042365.988613165</v>
       </c>
     </row>
     <row r="8">
@@ -34644,28 +34644,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3163.91627621078</v>
+        <v>3276.358667789372</v>
       </c>
       <c r="AB8" t="n">
-        <v>4329.009831246731</v>
+        <v>4482.858472012785</v>
       </c>
       <c r="AC8" t="n">
-        <v>3915.855208755837</v>
+        <v>4055.020751175096</v>
       </c>
       <c r="AD8" t="n">
-        <v>3163916.27621078</v>
+        <v>3276358.667789372</v>
       </c>
       <c r="AE8" t="n">
-        <v>4329009.831246731</v>
+        <v>4482858.472012784</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.188091766916992e-07</v>
+        <v>1.820330142621855e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.82604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3915855.208755837</v>
+        <v>4055020.751175096</v>
       </c>
     </row>
   </sheetData>
